--- a/excel/테이블관계.xlsx
+++ b/excel/테이블관계.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\woojeong\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DA2498-34EA-4CA6-A34A-CF1FB3FAA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69919D89-890D-4A07-8B4C-C28673670CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="855" windowWidth="16065" windowHeight="12810" activeTab="2" xr2:uid="{EB5FD5A8-4F10-4965-A7F8-0E86ECEB74AB}"/>
+    <workbookView xWindow="1380" yWindow="1470" windowWidth="17385" windowHeight="12810" activeTab="4" xr2:uid="{EB5FD5A8-4F10-4965-A7F8-0E86ECEB74AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="118">
   <si>
     <t>학번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -265,6 +267,234 @@
   </si>
   <si>
     <t>공학관 111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과 사무실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과 전화번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주소 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학관 201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육관 201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>053-111-2222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>053-222-3333</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처명 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직통번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양유업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 신촌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-123-1234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병음료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코카콜라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동서식품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데푸드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙그레</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오뚜기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 신림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 논현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 용산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노홍철</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박명수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경규</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정준하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하동훈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이광수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형돈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황광희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-123-1235</t>
+  </si>
+  <si>
+    <t>02-123-1236</t>
+  </si>
+  <si>
+    <t>02-123-1237</t>
+  </si>
+  <si>
+    <t>02-123-1238</t>
+  </si>
+  <si>
+    <t>02-123-1239</t>
+  </si>
+  <si>
+    <t>02-123-1240</t>
+  </si>
+  <si>
+    <t>02-123-1241</t>
+  </si>
+  <si>
+    <t>02-123-1242</t>
+  </si>
+  <si>
+    <t>캔음료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>케잌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타르트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌드위치용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러드용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에비앙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페리에</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기케잌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬타르트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +502,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="\$#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +541,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -354,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,20 +618,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -861,8 +1115,8 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -877,8 +1131,8 @@
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -893,8 +1147,8 @@
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -909,8 +1163,8 @@
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
@@ -925,8 +1179,8 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -941,15 +1195,13 @@
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -968,8 +1220,8 @@
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -978,8 +1230,8 @@
       <c r="C12" s="4">
         <v>0.05</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -988,26 +1240,26 @@
       <c r="C13" s="5">
         <v>0.1</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1019,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E67BBE-AE9A-4E77-AE9F-355C1E067230}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1047,7 +1299,7 @@
       <c r="E2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1068,7 +1320,7 @@
       <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="3">
         <v>501</v>
       </c>
@@ -1089,7 +1341,7 @@
       <c r="E4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>401</v>
       </c>
@@ -1110,7 +1362,7 @@
       <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="3">
         <v>402</v>
       </c>
@@ -1131,7 +1383,7 @@
       <c r="E6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="3">
         <v>502</v>
       </c>
@@ -1140,11 +1392,11 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="3">
         <v>501</v>
       </c>
@@ -1159,10 +1411,10 @@
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -1171,10 +1423,10 @@
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -1183,10 +1435,10 @@
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -1195,22 +1447,1111 @@
       <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FA640A-B1F8-4EC7-AC41-95FAA97009BD}">
+  <dimension ref="B2:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>501</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="10">
+        <v>401</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>402</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>502</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>501</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>501</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>401</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>402</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>502</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="10">
+        <v>501</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="10">
+        <v>401</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="10">
+        <v>402</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="F22" s="10">
+        <v>502</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="F23" s="10">
+        <v>501</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEC8FFD-BC42-49FE-8188-F58EC3B99C16}">
+  <dimension ref="A2:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="13">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
